--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.35750000000002</v>
+        <v>-21.44610000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.8659</v>
+        <v>-13.8744</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7483</v>
+        <v>11.7933</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.70420000000001</v>
+        <v>-11.6343</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.34680000000001</v>
+        <v>-13.8089</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3689</v>
+        <v>13.3001</v>
       </c>
     </row>
     <row r="12">
@@ -785,19 +785,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.1398</v>
+        <v>-21.15500000000002</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.5026</v>
+        <v>-11.256</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.41679999999999</v>
+        <v>12.3651</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.36680000000002</v>
+        <v>-21.36970000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.54340000000002</v>
+        <v>-22.51540000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
